--- a/co2-levels-data-files/aranet4/co2-levels-data-file-template.xlsx
+++ b/co2-levels-data-files/aranet4/co2-levels-data-file-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\co2-levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\co2-levels\co2-levels-data-files\aranet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38EF98F-971A-4E59-BA7C-892377787111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28BEC2-7C7B-4EB7-8263-6E567013C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Time(dd/mm/yyyy)</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>1. Fill in the Aranet4 sheet with your data, replacing the sample rows provided</t>
-  </si>
-  <si>
-    <t>2. the columns for Temperature, Relative humidity and Atmospheric pressure are optional</t>
-  </si>
-  <si>
-    <t>3. Fill in the Calendar sheet with your data, replacing the sample rows provided</t>
   </si>
   <si>
     <t>4. The column for Subject must start with "CO2:".  The remaining text will be used for the "Category" field.</t>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>CO2: Public Transport</t>
+  </si>
+  <si>
+    <t>2. the columns for Temperature, Relative humidity, Atmospheric pressure, Category and Location are optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Optionally fill in the Calendar sheet with your data, replacing the sample rows provided. </t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -977,22 +977,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1010,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4547"/>
+  <dimension ref="A1:G4547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1023,9 +1023,11 @@
     <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1043,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>45178.516759259262</v>
       </c>
@@ -1058,8 +1066,14 @@
       <c r="E2">
         <v>1012.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45178.519490740742</v>
       </c>
@@ -1075,44 +1089,50 @@
       <c r="E3">
         <v>1012.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
@@ -14718,7 +14738,7 @@
   <dimension ref="A1:D4547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14731,16 +14751,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -14751,10 +14771,10 @@
         <v>45178.518148148149</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14765,10 +14785,10 @@
         <v>45178.538993055554</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
